--- a/excel/initial_setup_data.xlsx
+++ b/excel/initial_setup_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -2300,7 +2300,7 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4592,7 +4592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -4636,7 +4636,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4835,7 +4835,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6923,8 +6923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9312,7 +9312,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
